--- a/q1_dataFiles/Zwischensitzung_DopingNordpol_Loesung.xlsx
+++ b/q1_dataFiles/Zwischensitzung_DopingNordpol_Loesung.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Dropbox\QuantiWebsite\q1_dataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B0CB3-9727-46CB-A01E-193B5EFCC5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -12,14 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">rentier_daten!$C$2:$C$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">rentier_daten!$C$2:$C$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Heu mit echtem Sternenstaub</t>
   </si>
@@ -104,11 +109,26 @@
   <si>
     <t xml:space="preserve">Angenommen gedopte Rentiere flögen tatschächlich im Schnitt mit 1340 km/h: Wie viele gedopte Rentiere hätte man untersuchen müssen, damit man eine  Geschwindigkeit, die mindestens so viel nach oben von der Schallgeschwindigkeit abweicht, wie die oben angegebene,  mit 90% Wahrscheinlichkeit durch ein signifikantes Ergebnis findet? </t>
   </si>
+  <si>
+    <t>Unterschied</t>
+  </si>
+  <si>
+    <t>verworfen</t>
+  </si>
+  <si>
+    <t>Nein, da das 95% KI für die mit Sternenstaub gedopte Gruppe die Schallgeschwindigkeit einschließt</t>
+  </si>
+  <si>
+    <t>Sie müssten ca 1,2 mal so schnell sein wie der Schall, oder auch: ca 1/5 schneller</t>
+  </si>
+  <si>
+    <t>50 Rentiere</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -737,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -760,36 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,6 +792,37 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -861,7 +882,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -914,7 +935,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -923,6 +943,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -963,7 +1000,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-CC6E-405D-9EEC-21B9E3485A74}"/>
               </c:ext>
@@ -986,7 +1023,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-CC6E-405D-9EEC-21B9E3485A74}"/>
               </c:ext>
@@ -1007,7 +1044,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-CC6E-405D-9EEC-21B9E3485A74}"/>
               </c:ext>
@@ -1028,7 +1065,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-CC6E-405D-9EEC-21B9E3485A74}"/>
               </c:ext>
@@ -1142,7 +1179,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC6E-405D-9EEC-21B9E3485A74}"/>
             </c:ext>
@@ -1195,7 +1232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1204,6 +1240,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1291,7 +1344,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1300,6 +1352,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1345,14 +1414,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1392,7 +1461,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2658,7 +2727,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{088BBC5A-A2B7-42C9-A9A3-8C1B046E98E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088BBC5A-A2B7-42C9-A9A3-8C1B046E98E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2759,7 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Diagramm 5">
@@ -2716,15 +2785,15 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Rechteck 2"/>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="514350" y="4452937"/>
-              <a:ext cx="5143500" cy="4624388"/>
+              <a:off x="514350" y="4456112"/>
+              <a:ext cx="5499100" cy="4484688"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2752,6 +2821,94 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1159017</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68820</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>665581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44861EFB-C328-4923-95DD-890D88A059FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14582917" y="6905625"/>
+          <a:ext cx="6078953" cy="6898106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1147218</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1225550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146384</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>33756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD374D3-4559-4923-8EFC-543714034131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14571118" y="14363700"/>
+          <a:ext cx="6168316" cy="6999706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3046,14 +3203,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3065,11 +3222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3234,7 @@
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
@@ -3098,6 +3255,9 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3112,7 +3272,10 @@
       <c r="D2" s="1">
         <v>1357.2137122443801</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <f>D2-C2</f>
+        <v>469.30884155482306</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3127,7 +3290,10 @@
       <c r="D3" s="1">
         <v>1306.3492609295599</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E21" si="0">D3-C3</f>
+        <v>352.38475882621594</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3142,7 +3308,10 @@
       <c r="D4" s="1">
         <v>1597.4859043351501</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>285.74424150533014</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3157,7 +3326,10 @@
       <c r="D5" s="1">
         <v>1324.56326854135</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>310.46159025642999</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3172,7 +3344,10 @@
       <c r="D6" s="1">
         <v>1253.9851014552601</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>228.12755442307002</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3187,7 +3362,10 @@
       <c r="D7" s="1">
         <v>1788.8399743176899</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>445.8269769410299</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3202,7 +3380,10 @@
       <c r="D8" s="1">
         <v>1433.4886503457799</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>341.30540914793983</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3217,7 +3398,10 @@
       <c r="D9" s="1">
         <v>861.596143667398</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>114.60839058870499</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3232,7 +3416,10 @@
       <c r="D10" s="1">
         <v>1274.2662518846801</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>411.63682226338506</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3247,7 +3434,10 @@
       <c r="D11" s="1">
         <v>1171.95911585665</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>261.09150987664202</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3262,7 +3452,10 @@
       <c r="D12" s="1">
         <v>675.13931246781203</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>-56.156405945542929</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3277,7 +3470,10 @@
       <c r="D13" s="1">
         <v>1256.8157823926199</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>132.46067166195985</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3292,7 +3488,10 @@
       <c r="D14" s="1">
         <v>1246.78710411712</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>86.612171140589908</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3307,7 +3506,10 @@
       <c r="D15" s="1">
         <v>976.24865636067102</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>254.02713878518807</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3322,7 +3524,10 @@
       <c r="D16" s="1">
         <v>712.80627457770004</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>-144.32235364604094</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3337,7 +3542,10 @@
       <c r="D17" s="1">
         <v>1181.8330036986899</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>246.64521420590791</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3352,7 +3560,10 @@
       <c r="D18" s="1">
         <v>1318.93522051992</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>180.80662140093</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3367,7 +3578,10 @@
       <c r="D19" s="1">
         <v>1086.5856632813</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>36.476083016370012</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -3382,15 +3596,18 @@
       <c r="D20" s="1">
         <v>1434.78043999121</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="G20" s="22" t="s">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>233.30998581524</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3405,7 +3622,10 @@
       <c r="D21" s="1">
         <v>1276.2635469470799</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>161.61661006653003</v>
+      </c>
       <c r="G21" s="4" t="s">
         <v>4</v>
       </c>
@@ -3468,7 +3688,9 @@
       <c r="G24" s="2">
         <v>10</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
       <c r="I24" s="2">
         <v>10</v>
       </c>
@@ -3496,7 +3718,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -3508,7 +3730,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="24"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
@@ -3516,9 +3738,10 @@
         <f>AVERAGE(C2:C21)-H28</f>
         <v>924.76119093740749</v>
       </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="24"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
@@ -3528,7 +3751,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="25"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="4" t="s">
         <v>26</v>
       </c>
@@ -3541,46 +3764,57 @@
       <c r="F33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="3">
+        <f>AVERAGE(E2:E11)</f>
+        <v>322.04960953835706</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xlfn.T.TEST(C2:C11,D2:D11,1,1)</f>
+        <v>2.7281507608386148E-6</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="7"/>
-      <c r="F40" s="15"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="7"/>
-      <c r="F41" s="15"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>H38/_xlfn.STDEV.S(E2:E11)</f>
+        <v>3.0053872302718592</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -3593,88 +3827,109 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="7"/>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="3">
+        <f>AVERAGE(E12:E21)</f>
+        <v>113.14757365011319</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="7"/>
-      <c r="F45" s="15"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xlfn.T.TEST(C12:C21,D12:D21,1,1)</f>
+        <v>1.2693358060811573E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="7"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
-      <c r="F47" s="15"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>H44/_xlfn.STDEV.S(E12:E21)</f>
+        <v>0.84611203513685806</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
+      <c r="G50" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="15"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="15"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="22"/>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53" s="15"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
     </row>
     <row r="56" spans="6:8" ht="90" x14ac:dyDescent="0.25">
       <c r="F56" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
+      <c r="G56" s="11">
+        <f>(1236+(1.0048503*_xlfn.STDEV.S(D2:D11)))/1236</f>
+        <v>1.2004081383259488</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="59" spans="6:8" ht="165" x14ac:dyDescent="0.25">
       <c r="F59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="11">
+        <f>(1340-1236)/_xlfn.STDEV.S(D2:D11)</f>
+        <v>0.42189160273569615</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A39:A45">
     <sortCondition ref="A39"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G59:H59"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F38:F41"/>
     <mergeCell ref="F44:F47"/>

--- a/q1_dataFiles/Zwischensitzung_DopingNordpol_Loesung.xlsx
+++ b/q1_dataFiles/Zwischensitzung_DopingNordpol_Loesung.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Dropbox\QuantiWebsite\q1_dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Google Drive\Uni\Psych\Lehre\Quanti\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B0CB3-9727-46CB-A01E-193B5EFCC5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98CCBC02-8398-4071-AC53-D1A2924E0896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
     <sheet name="rentier_daten" sheetId="1" r:id="rId2"/>
+    <sheet name="within_d_CI" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">rentier_daten!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">within_d_CI!$C$2:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
   <si>
     <t>Heu mit echtem Sternenstaub</t>
   </si>
@@ -123,6 +125,12 @@
   </si>
   <si>
     <t>50 Rentiere</t>
+  </si>
+  <si>
+    <t>Korrelation der Messungen</t>
+  </si>
+  <si>
+    <t>Se d</t>
   </si>
 </sst>
 </file>
@@ -780,6 +788,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,10 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -957,7 +965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1254,7 +1262,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1286,7 +1294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="223371648"/>
@@ -1366,7 +1374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1397,7 +1405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="223361280"/>
@@ -1445,7 +1453,582 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Entwicklung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> der Fluggeschwindigkeit</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-842C-4FDF-97D2-2C0528104637}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-842C-4FDF-97D2-2C0528104637}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-842C-4FDF-97D2-2C0528104637}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-842C-4FDF-97D2-2C0528104637}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>within_d_CI!$G$25:$J$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>136.45920148372346</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>176.34178480569796</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>128.47692567685755</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>182.70357013935816</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>within_d_CI!$G$25:$J$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>136.45920148372346</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>176.34178480569796</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>128.47692567685755</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>182.70357013935816</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>within_d_CI!$G$20:$J$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>vor Doping</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>nach Doping</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>vor Doping</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>nach Doping</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heu mit echtem Sternenstaub</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Heu mit Fake-Sternenstaub</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>within_d_CI!$G$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1014.9251288194325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1336.9747383577901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1003.471926785299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1116.6195004354122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-842C-4FDF-97D2-2C0528104637}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="223361280"/>
+        <c:axId val="223371648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="223361280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Zeitpunkte und Bedingung</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223371648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="223371648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Geschwindigkeit km/h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223361280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1462,6 +2045,159 @@
     <cx:data id="0">
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>"Normale" Fluggeschwindigkeit von Rentieren (ohne Doping bzw. Placebo)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>"Normale" Fluggeschwindigkeit von Rentieren (ohne Doping bzw. Placebo)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D3A28223-4D5E-4982-B192-A094805C5A64}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1050" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE" sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="500"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Geschwindigkeit km/m</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Geschwindigkeit km/m</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1689,6 +2425,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2193,6 +3009,1024 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2792,8 +4626,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="514350" y="4456112"/>
-              <a:ext cx="5499100" cy="4484688"/>
+              <a:off x="514350" y="4452937"/>
+              <a:ext cx="5495925" cy="4481513"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2812,7 +4646,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
 Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
               </a:r>
@@ -2914,6 +4748,334 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1104899</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBAAAA9-58B1-4883-8678-92E29F3EFC3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Diagramm 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1F2EA6-73EC-4307-BD15-BAF21419963B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="514350" y="4452937"/>
+              <a:ext cx="5495925" cy="4481513"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1147218</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1225550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>717884</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>33756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2956502-5D68-4506-A41B-071879CAE891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14558418" y="14360525"/>
+          <a:ext cx="6171491" cy="6999706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E921D261-F8CC-4D26-8CF5-41FCF279AED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287500" y="6400800"/>
+          <a:ext cx="6867525" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Was wir kurz vor Weihnachten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> noch nicht besprochen hatten, war die Berechnung des KIs für die Messwiederholungseffektstärke, da man hierfür die Korrelation der Messungen braucht. Unten ist dieser Teil der Aufgaben jetzt ergänzt. Vllt. kann der Weihnachtsmann das fürs kommende Weihnachtsfest noch gut gebrauchen.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>370428</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF14DF84-ACD9-4860-94D3-9F93AD560678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18869025" y="8372475"/>
+          <a:ext cx="8371428" cy="1733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>208437</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>828401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D5D81B-E195-4D59-9283-30032F9CC3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17983200" y="10248900"/>
+          <a:ext cx="8904762" cy="2190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2957,7 +5119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3009,7 +5171,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3225,8 +5387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,14 +5762,14 @@
         <f t="shared" si="0"/>
         <v>233.30998581524</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3718,7 +5880,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -3730,7 +5892,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="14"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
@@ -3741,7 +5903,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="14"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
@@ -3751,7 +5913,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="15"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="4" t="s">
         <v>26</v>
       </c>
@@ -3764,13 +5926,13 @@
       <c r="F33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -3784,7 +5946,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="4" t="s">
         <v>10</v>
       </c>
@@ -3796,7 +5958,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="7"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="4" t="s">
         <v>14</v>
       </c>
@@ -3807,7 +5969,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="7"/>
-      <c r="F41" s="18"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="4" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +5989,7 @@
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="7"/>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3841,7 +6003,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="7"/>
-      <c r="F45" s="18"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +6015,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="7"/>
-      <c r="F46" s="18"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
@@ -3864,7 +6026,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
-      <c r="F47" s="18"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="4" t="s">
         <v>16</v>
       </c>
@@ -3875,28 +6037,28 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="18"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="18"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53" s="18"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="56" spans="6:8" ht="90" x14ac:dyDescent="0.25">
       <c r="F56" s="6" t="s">
@@ -3906,7 +6068,7 @@
         <f>(1236+(1.0048503*_xlfn.STDEV.S(D2:D11)))/1236</f>
         <v>1.2004081383259488</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3918,23 +6080,799 @@
         <f>(1340-1236)/_xlfn.STDEV.S(D2:D11)</f>
         <v>0.42189160273569615</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="13" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A39:A45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:A45">
     <sortCondition ref="A39"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:H53"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="F38:F41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83968EA1-D143-4AB1-B7F5-E07662F912A3}">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>887.90487068955701</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1357.2137122443801</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2-C2</f>
+        <v>469.30884155482306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>953.96450210334399</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1306.3492609295599</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E21" si="0">D3-C3</f>
+        <v>352.38475882621594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1311.7416628298199</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1597.4859043351501</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>285.74424150533014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1014.10167828492</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1324.56326854135</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>310.46159025642999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1025.85754703219</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1253.9851014552601</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>228.12755442307002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1343.01299737666</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1788.8399743176899</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>445.8269769410299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1092.1832411978401</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1433.4886503457799</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>341.30540914793983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>746.987753078693</v>
+      </c>
+      <c r="D9" s="1">
+        <v>861.596143667398</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>114.60839058870499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>862.629429621295</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1274.2662518846801</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>411.63682226338506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>910.86760598000797</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1171.95911585665</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>261.09150987664202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>731.29571841335496</v>
+      </c>
+      <c r="D12" s="1">
+        <v>675.13931246781203</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>-56.156405945542929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1124.35511073066</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1256.8157823926199</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>132.46067166195985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1160.17493297653</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1246.78710411712</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>86.612171140589908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>722.22151757548295</v>
+      </c>
+      <c r="D15" s="1">
+        <v>976.24865636067102</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>254.02713878518807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>857.12862822374098</v>
+      </c>
+      <c r="D16" s="1">
+        <v>712.80627457770004</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>-144.32235364604094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>935.18778949278203</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1181.8330036986899</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>246.64521420590791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1138.12859911899</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1318.93522051992</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>180.80662140093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1050.1095802649299</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1086.5856632813</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>36.476083016370012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1201.47045417597</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1434.78043999121</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>233.30998581524</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1114.6469368805499</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1276.2635469470799</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>161.61661006653003</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3">
+        <f>AVERAGE(C2:C11)</f>
+        <v>1014.9251288194325</v>
+      </c>
+      <c r="H22" s="3">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1336.9747383577901</v>
+      </c>
+      <c r="I22" s="3">
+        <f>AVERAGE(C12:C21)</f>
+        <v>1003.471926785299</v>
+      </c>
+      <c r="J22" s="3">
+        <f>AVERAGE(D12:D21)</f>
+        <v>1116.6195004354122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3">
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>190.75681012481812</v>
+      </c>
+      <c r="H23" s="3">
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>246.50881725454306</v>
+      </c>
+      <c r="I23" s="3">
+        <f>_xlfn.STDEV.S(C12:C21)</f>
+        <v>179.59835797283279</v>
+      </c>
+      <c r="J23" s="3">
+        <f>_xlfn.STDEV.S(D12:D21)</f>
+        <v>255.40197992699666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3">
+        <f>_xlfn.CONFIDENCE.T(0.05,G23,$G$24)</f>
+        <v>136.45920148372346</v>
+      </c>
+      <c r="H25" s="3">
+        <f>_xlfn.CONFIDENCE.T(0.05,H23,$G$24)</f>
+        <v>176.34178480569796</v>
+      </c>
+      <c r="I25" s="3">
+        <f>_xlfn.CONFIDENCE.T(0.05,I23,$G$24)</f>
+        <v>128.47692567685755</v>
+      </c>
+      <c r="J25" s="3">
+        <f>_xlfn.CONFIDENCE.T(0.05,J23,$G$24)</f>
+        <v>182.70357013935816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2">
+        <f>_xlfn.CONFIDENCE.T(0.05,_xlfn.STDEV.S(C2:C21),COUNT(C2:C21))</f>
+        <v>84.43733686495834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="16"/>
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3">
+        <f>AVERAGE(C2:C21)-H28</f>
+        <v>924.76119093740749</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="16"/>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3">
+        <f>AVERAGE(C2:C21)+H28</f>
+        <v>1093.6358646673241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="17"/>
+      <c r="G31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3">
+        <f>AVERAGE(C2:C21)</f>
+        <v>1009.1985278023658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="3">
+        <f>AVERAGE(E2:E11)</f>
+        <v>322.04960953835706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2">
+        <f>_xlfn.T.TEST(C2:C11,D2:D11,1,1)</f>
+        <v>2.7281507608386148E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2">
+        <f>H38/_xlfn.STDEV.S(E2:E11)</f>
+        <v>3.0053872302718592</v>
+      </c>
+      <c r="I41">
+        <f>CORREL(C2:C11,D2:D11)</f>
+        <v>0.91095432838033574</v>
+      </c>
+      <c r="J41">
+        <f>SQRT(((1/10)+((H41^2)/20))*2*(1-I41))</f>
+        <v>0.31342993305496769</v>
+      </c>
+      <c r="K41">
+        <f>H41-1.96*J41</f>
+        <v>2.3910645614841224</v>
+      </c>
+      <c r="L41">
+        <f>H41+1.96*J41</f>
+        <v>3.6197098990595959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="F44" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3">
+        <f>AVERAGE(E12:E21)</f>
+        <v>113.14757365011319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <f>_xlfn.T.TEST(C12:C21,D12:D21,1,1)</f>
+        <v>1.2693358060811573E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="2">
+        <f>H44/_xlfn.STDEV.S(E12:E21)</f>
+        <v>0.84611203513685806</v>
+      </c>
+      <c r="I47">
+        <f>CORREL(C12:C21,D12:D21)</f>
+        <v>0.86770614514300992</v>
+      </c>
+      <c r="J47">
+        <f>SQRT(((1/10)+((H47^2)/20))*2*(1-I47))</f>
+        <v>0.18955147535091585</v>
+      </c>
+      <c r="K47">
+        <f>H47-1.96*J47</f>
+        <v>0.474591143449063</v>
+      </c>
+      <c r="L47">
+        <f>H47+1.96*J47</f>
+        <v>1.2176329268246531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="20"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="20"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="20"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="56" spans="6:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="F56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="11">
+        <f>(1236+(1.0048503*_xlfn.STDEV.S(D2:D11)))/1236</f>
+        <v>1.2004081383259488</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="F59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="11">
+        <f>(1340-1236)/_xlfn.STDEV.S(D2:D11)</f>
+        <v>0.42189160273569615</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:H53"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F38:F41"/>
     <mergeCell ref="F44:F47"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:H53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
